--- a/runs/run726/NotionalETEOutput726.xlsx
+++ b/runs/run726/NotionalETEOutput726.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_BRAVER2_State_Update</t>
+    <t>Missile_BRAVER0_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER2_258.MISSILE_BRAVER2_258</t>
+    <t>MISSILE_BRAVER0_452.MISSILE_BRAVER0_452</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER2</t>
+    <t>MISSILE_BRAVER0</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1437.950717479514</v>
+        <v>-1445.649702462392</v>
       </c>
       <c r="J2">
-        <v>2031.794408422145</v>
+        <v>1988.092948678576</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1480.099824576466</v>
+        <v>-1473.217123570855</v>
       </c>
       <c r="J3">
-        <v>1898.259377207515</v>
+        <v>1943.512349508713</v>
       </c>
       <c r="K3">
-        <v>309.4124639682511</v>
+        <v>303.120515110169</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1432.966026829836</v>
+        <v>-1407.092003488135</v>
       </c>
       <c r="J4">
-        <v>1883.349123269744</v>
+        <v>1905.396273836027</v>
       </c>
       <c r="K4">
-        <v>592.0632495450354</v>
+        <v>610.6744143752248</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1459.668632182134</v>
+        <v>-1365.919030925356</v>
       </c>
       <c r="J5">
-        <v>1791.494252464165</v>
+        <v>1902.435265266408</v>
       </c>
       <c r="K5">
-        <v>863.527905498172</v>
+        <v>829.1119752510288</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1358.045857026076</v>
+        <v>-1357.415643163848</v>
       </c>
       <c r="J6">
-        <v>1784.043284993462</v>
+        <v>1879.558215647246</v>
       </c>
       <c r="K6">
-        <v>1101.18073421475</v>
+        <v>1162.568169105098</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1377.51919071266</v>
+        <v>-1314.350789392695</v>
       </c>
       <c r="J7">
-        <v>1781.465129709487</v>
+        <v>1709.721327516752</v>
       </c>
       <c r="K7">
-        <v>1350.495103663112</v>
+        <v>1405.828897458522</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1246.494214376689</v>
+        <v>-1283.516751866443</v>
       </c>
       <c r="J8">
-        <v>1664.362154484569</v>
+        <v>1655.899844438502</v>
       </c>
       <c r="K8">
-        <v>1640.038327931409</v>
+        <v>1652.647766606624</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-101.5968010810771</v>
+        <v>-101.7926069740368</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1218.559354379746</v>
+        <v>-1300.768022083144</v>
       </c>
       <c r="J9">
-        <v>1735.915479531404</v>
+        <v>1724.782411700584</v>
       </c>
       <c r="K9">
-        <v>1873.729135451587</v>
+        <v>1881.737206278219</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>217.3295757053464</v>
+        <v>212.8090955080807</v>
       </c>
       <c r="G10">
-        <v>-80.13984694318067</v>
+        <v>-85.01578590054392</v>
       </c>
       <c r="H10">
-        <v>825.5715018185446</v>
+        <v>822.7042193684416</v>
       </c>
       <c r="I10">
-        <v>-1204.637476876755</v>
+        <v>-1296.518025660424</v>
       </c>
       <c r="J10">
-        <v>1573.708504747452</v>
+        <v>1653.905944305203</v>
       </c>
       <c r="K10">
-        <v>2072.77433191105</v>
+        <v>2076.70692025914</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>169.8288144566826</v>
+        <v>169.1801056805168</v>
       </c>
       <c r="G11">
-        <v>-66.41451053970582</v>
+        <v>-66.04674416276725</v>
       </c>
       <c r="H11">
-        <v>1020.52642143554</v>
+        <v>1056.594953288005</v>
       </c>
       <c r="I11">
-        <v>-1159.383084746783</v>
+        <v>-1200.631164521009</v>
       </c>
       <c r="J11">
-        <v>1540.030181173074</v>
+        <v>1499.496205330386</v>
       </c>
       <c r="K11">
-        <v>2254.161695694772</v>
+        <v>2211.922178125395</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>137.9132732019798</v>
+        <v>133.7548264523157</v>
       </c>
       <c r="G12">
-        <v>-50.263730413647</v>
+        <v>-52.02151253974858</v>
       </c>
       <c r="H12">
-        <v>1130.528065734523</v>
+        <v>1118.003056534023</v>
       </c>
       <c r="I12">
-        <v>-1124.993741591148</v>
+        <v>-1207.67418672177</v>
       </c>
       <c r="J12">
-        <v>1491.259488757544</v>
+        <v>1562.61295158825</v>
       </c>
       <c r="K12">
-        <v>2310.207593840313</v>
+        <v>2429.386963068528</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>121.2394142113308</v>
+        <v>126.3709801671582</v>
       </c>
       <c r="G13">
-        <v>-33.37963697680014</v>
+        <v>-34.26848292380895</v>
       </c>
       <c r="H13">
-        <v>1223.791280249826</v>
+        <v>1318.466519528248</v>
       </c>
       <c r="I13">
-        <v>-1186.257304907775</v>
+        <v>-1122.222688965689</v>
       </c>
       <c r="J13">
-        <v>1396.416904909071</v>
+        <v>1395.137753690076</v>
       </c>
       <c r="K13">
-        <v>2469.570612658892</v>
+        <v>2420.511113326823</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>112.1874475697218</v>
+        <v>109.5988438601199</v>
       </c>
       <c r="G14">
-        <v>-17.05022066934014</v>
+        <v>-17.24019330706053</v>
       </c>
       <c r="H14">
-        <v>1302.052222954308</v>
+        <v>1342.660792559876</v>
       </c>
       <c r="I14">
-        <v>-1133.456239275741</v>
+        <v>-1145.030819192215</v>
       </c>
       <c r="J14">
-        <v>1411.172602617761</v>
+        <v>1467.913099078958</v>
       </c>
       <c r="K14">
-        <v>2665.591470020163</v>
+        <v>2589.044202734145</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>99.64999485224938</v>
+        <v>103.2345369817397</v>
       </c>
       <c r="G15">
-        <v>-0.9540119967391641</v>
+        <v>-0.9521106497535341</v>
       </c>
       <c r="H15">
-        <v>1372.040191554302</v>
+        <v>1348.197100286364</v>
       </c>
       <c r="I15">
-        <v>-1056.443757111529</v>
+        <v>-1035.481505820212</v>
       </c>
       <c r="J15">
-        <v>1403.422979101433</v>
+        <v>1351.441953950895</v>
       </c>
       <c r="K15">
-        <v>2807.007241903525</v>
+        <v>2703.79095828724</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>95.61535043457141</v>
+        <v>97.14450626341959</v>
       </c>
       <c r="G16">
-        <v>15.29554362021134</v>
+        <v>15.55223472896304</v>
       </c>
       <c r="H16">
-        <v>1493.742946687484</v>
+        <v>1401.704991945059</v>
       </c>
       <c r="I16">
-        <v>-1060.464386401693</v>
+        <v>-1031.362661921609</v>
       </c>
       <c r="J16">
-        <v>1341.740583395953</v>
+        <v>1374.680167955706</v>
       </c>
       <c r="K16">
-        <v>2798.409856591765</v>
+        <v>2793.255903597435</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>83.94339778760353</v>
+        <v>89.57275869617715</v>
       </c>
       <c r="G17">
-        <v>31.82379615045232</v>
+        <v>30.84552590445584</v>
       </c>
       <c r="H17">
-        <v>1469.429835968123</v>
+        <v>1517.917281369037</v>
       </c>
       <c r="I17">
-        <v>-936.8657192894882</v>
+        <v>-973.7042890861728</v>
       </c>
       <c r="J17">
-        <v>1329.202794168197</v>
+        <v>1251.017371593639</v>
       </c>
       <c r="K17">
-        <v>2868.84210430973</v>
+        <v>3103.648191592111</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>83.80816873253795</v>
+        <v>79.67976471089175</v>
       </c>
       <c r="G18">
-        <v>48.71213326291418</v>
+        <v>47.39936964501884</v>
       </c>
       <c r="H18">
-        <v>1519.85268957218</v>
+        <v>1545.177000980203</v>
       </c>
       <c r="I18">
-        <v>-943.1231825557177</v>
+        <v>-900.8870572189185</v>
       </c>
       <c r="J18">
-        <v>1223.412712087021</v>
+        <v>1172.853013438438</v>
       </c>
       <c r="K18">
-        <v>3178.990466350998</v>
+        <v>3150.338030229553</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>77.68637781598314</v>
+        <v>78.38642133050908</v>
       </c>
       <c r="G19">
-        <v>67.13729106891476</v>
+        <v>63.30878883910389</v>
       </c>
       <c r="H19">
-        <v>1492.167945827203</v>
+        <v>1517.933616529197</v>
       </c>
       <c r="I19">
-        <v>-842.7631368402602</v>
+        <v>-909.8648990826572</v>
       </c>
       <c r="J19">
-        <v>1132.848329964273</v>
+        <v>1131.104359084377</v>
       </c>
       <c r="K19">
-        <v>3076.29627515957</v>
+        <v>3246.591068047413</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>72.31703956599294</v>
+        <v>73.71372134608583</v>
       </c>
       <c r="G20">
-        <v>83.91951442963158</v>
+        <v>79.92016802617357</v>
       </c>
       <c r="H20">
-        <v>1584.996552083727</v>
+        <v>1530.678639189359</v>
       </c>
       <c r="I20">
-        <v>-837.2455837627002</v>
+        <v>-803.4627450984592</v>
       </c>
       <c r="J20">
-        <v>1161.006964448591</v>
+        <v>1158.869056644066</v>
       </c>
       <c r="K20">
-        <v>3062.20982012147</v>
+        <v>3119.711053826302</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>67.70798031842284</v>
+        <v>71.06365374346771</v>
       </c>
       <c r="G21">
-        <v>98.48280476571439</v>
+        <v>97.67126785305436</v>
       </c>
       <c r="H21">
-        <v>1653.068453343745</v>
+        <v>1659.730545745765</v>
       </c>
       <c r="I21">
-        <v>-757.556443649942</v>
+        <v>-803.019883722692</v>
       </c>
       <c r="J21">
-        <v>1032.03717091356</v>
+        <v>1120.334970989229</v>
       </c>
       <c r="K21">
-        <v>3043.547004363084</v>
+        <v>3220.987450319013</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>68.28995439043173</v>
+        <v>67.99174610860975</v>
       </c>
       <c r="G22">
-        <v>109.8712768710561</v>
+        <v>111.5842237374211</v>
       </c>
       <c r="H22">
-        <v>1639.779631923211</v>
+        <v>1660.808194639379</v>
       </c>
       <c r="I22">
-        <v>-733.6669430569209</v>
+        <v>-741.2853870805886</v>
       </c>
       <c r="J22">
-        <v>989.0144725392443</v>
+        <v>989.1717010168968</v>
       </c>
       <c r="K22">
-        <v>3129.304393610047</v>
+        <v>3088.708323434224</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>63.90420393234574</v>
+        <v>66.78791959764446</v>
       </c>
       <c r="G23">
-        <v>132.4233076262514</v>
+        <v>131.3270356179134</v>
       </c>
       <c r="H23">
-        <v>1693.530556538733</v>
+        <v>1576.846811374623</v>
       </c>
       <c r="I23">
-        <v>-677.1339210360261</v>
+        <v>-693.5893051917319</v>
       </c>
       <c r="J23">
-        <v>994.0812732408115</v>
+        <v>989.9549984163419</v>
       </c>
       <c r="K23">
-        <v>3095.926143051903</v>
+        <v>3160.40083641548</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>62.24586608796312</v>
+        <v>61.96696303675638</v>
       </c>
       <c r="G24">
-        <v>147.6766586534494</v>
+        <v>143.8029528518032</v>
       </c>
       <c r="H24">
-        <v>1615.636114363253</v>
+        <v>1708.165215412063</v>
       </c>
       <c r="I24">
-        <v>-652.9183524413427</v>
+        <v>-636.4016585087697</v>
       </c>
       <c r="J24">
-        <v>938.5683071897977</v>
+        <v>896.735258550515</v>
       </c>
       <c r="K24">
-        <v>3109.631639887672</v>
+        <v>3054.236763740704</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>61.40729535287548</v>
+        <v>58.86209961474464</v>
       </c>
       <c r="G25">
-        <v>166.5066527550591</v>
+        <v>158.6544928855547</v>
       </c>
       <c r="H25">
-        <v>1668.277841393459</v>
+        <v>1700.22738545197</v>
       </c>
       <c r="I25">
-        <v>-598.8070983025478</v>
+        <v>-600.4809501004484</v>
       </c>
       <c r="J25">
-        <v>924.6413884255793</v>
+        <v>901.4146986609752</v>
       </c>
       <c r="K25">
-        <v>3131.60353910809</v>
+        <v>3142.110647138818</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>61.29464337061926</v>
+        <v>58.90337161221211</v>
       </c>
       <c r="G26">
-        <v>183.9859596593045</v>
+        <v>183.6541470122972</v>
       </c>
       <c r="H26">
-        <v>1612.512680606008</v>
+        <v>1752.568894376939</v>
       </c>
       <c r="I26">
-        <v>-565.9920714978954</v>
+        <v>-542.4195935650575</v>
       </c>
       <c r="J26">
-        <v>832.3283984786033</v>
+        <v>848.6370807261904</v>
       </c>
       <c r="K26">
-        <v>3092.749209690437</v>
+        <v>3035.340292300908</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>57.94182190660774</v>
+        <v>58.1848087491601</v>
       </c>
       <c r="G27">
-        <v>202.5799113082624</v>
+        <v>196.8740946162227</v>
       </c>
       <c r="H27">
-        <v>1628.747195619989</v>
+        <v>1782.795421447718</v>
       </c>
       <c r="I27">
-        <v>-477.7154888468694</v>
+        <v>-474.2243429705211</v>
       </c>
       <c r="J27">
-        <v>771.3949291700885</v>
+        <v>817.8520000423696</v>
       </c>
       <c r="K27">
-        <v>3133.689545636168</v>
+        <v>2962.228090932188</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>57.04817381457218</v>
+        <v>55.2399029115925</v>
       </c>
       <c r="G28">
-        <v>203.3957019022878</v>
+        <v>220.3636964743851</v>
       </c>
       <c r="H28">
-        <v>1741.386031757878</v>
+        <v>1677.820737193394</v>
       </c>
       <c r="I28">
-        <v>-448.1611473647512</v>
+        <v>-431.701357722893</v>
       </c>
       <c r="J28">
-        <v>731.7709967151407</v>
+        <v>734.5130315732252</v>
       </c>
       <c r="K28">
-        <v>2983.525725525349</v>
+        <v>3089.120261658137</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>55.98226163823809</v>
+        <v>55.16437551950394</v>
       </c>
       <c r="G29">
-        <v>227.9676974312819</v>
+        <v>228.6961137225507</v>
       </c>
       <c r="H29">
-        <v>1746.375341873771</v>
+        <v>1776.815702206763</v>
       </c>
       <c r="I29">
-        <v>-372.5213388341069</v>
+        <v>-367.2108289916703</v>
       </c>
       <c r="J29">
-        <v>657.6336364816757</v>
+        <v>666.3591796198198</v>
       </c>
       <c r="K29">
-        <v>2927.496226427697</v>
+        <v>2783.030890408117</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>52.93219134561545</v>
+        <v>51.58070807650692</v>
       </c>
       <c r="G30">
-        <v>239.4534063214537</v>
+        <v>246.6356556623039</v>
       </c>
       <c r="H30">
-        <v>1744.112470346939</v>
+        <v>1702.666357793683</v>
       </c>
       <c r="I30">
-        <v>-330.5159497846712</v>
+        <v>-339.3491639483193</v>
       </c>
       <c r="J30">
-        <v>623.7412551810473</v>
+        <v>652.8542350145221</v>
       </c>
       <c r="K30">
-        <v>2665.843200781339</v>
+        <v>2697.249630469177</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>50.69428399497519</v>
+        <v>51.63408436671405</v>
       </c>
       <c r="G31">
-        <v>252.6295817495099</v>
+        <v>272.6502283896853</v>
       </c>
       <c r="H31">
-        <v>1702.790650977948</v>
+        <v>1812.251164651149</v>
       </c>
       <c r="I31">
-        <v>-258.2283292776037</v>
+        <v>-264.7567478643045</v>
       </c>
       <c r="J31">
-        <v>609.1416051450682</v>
+        <v>584.6327811088362</v>
       </c>
       <c r="K31">
-        <v>2776.052890952961</v>
+        <v>2771.215248459589</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>49.24407106137228</v>
+        <v>49.09457418946745</v>
       </c>
       <c r="G32">
-        <v>284.0252499925211</v>
+        <v>285.4918237518586</v>
       </c>
       <c r="H32">
-        <v>1726.085553387455</v>
+        <v>1729.143489923495</v>
       </c>
       <c r="I32">
-        <v>-210.3118044533588</v>
+        <v>-209.8032930165503</v>
       </c>
       <c r="J32">
-        <v>559.70153988577</v>
+        <v>514.5033539016941</v>
       </c>
       <c r="K32">
-        <v>2454.266006994164</v>
+        <v>2605.466606210231</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>50.25697930551443</v>
+        <v>49.72605980965275</v>
       </c>
       <c r="G33">
-        <v>305.0652430037786</v>
+        <v>298.2882206469203</v>
       </c>
       <c r="H33">
-        <v>1742.997128899694</v>
+        <v>1849.164895566669</v>
       </c>
       <c r="I33">
-        <v>-150.3222205441162</v>
+        <v>-147.8238700512697</v>
       </c>
       <c r="J33">
-        <v>488.6911915833346</v>
+        <v>500.0898137775383</v>
       </c>
       <c r="K33">
-        <v>2462.887620324418</v>
+        <v>2267.180236367262</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>47.10762036096991</v>
+        <v>46.95958526862788</v>
       </c>
       <c r="G34">
-        <v>321.7330263053497</v>
+        <v>299.4629157779556</v>
       </c>
       <c r="H34">
-        <v>1881.675142679663</v>
+        <v>1839.798271314213</v>
       </c>
       <c r="I34">
-        <v>-82.20258675855858</v>
+        <v>-86.87655586416709</v>
       </c>
       <c r="J34">
-        <v>433.2591060545947</v>
+        <v>432.2270083239761</v>
       </c>
       <c r="K34">
-        <v>2157.332032386113</v>
+        <v>2185.203501792189</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>50.29634170303711</v>
+        <v>49.69501860742368</v>
       </c>
       <c r="G35">
-        <v>324.7057475575667</v>
+        <v>344.5020131889741</v>
       </c>
       <c r="H35">
-        <v>1905.833104847585</v>
+        <v>1908.73998637011</v>
       </c>
       <c r="I35">
-        <v>-18.45917122350781</v>
+        <v>-18.53544151610854</v>
       </c>
       <c r="J35">
-        <v>412.7788803076408</v>
+        <v>376.5354370504815</v>
       </c>
       <c r="K35">
-        <v>1976.363038069609</v>
+        <v>1978.193426710632</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>45.40918210921514</v>
+        <v>45.14506575903025</v>
       </c>
       <c r="G36">
-        <v>356.7695506228054</v>
+        <v>338.6920661712694</v>
       </c>
       <c r="H36">
-        <v>1863.23306224422</v>
+        <v>1914.18221219638</v>
       </c>
       <c r="I36">
-        <v>46.0543809653479</v>
+        <v>47.10841818707631</v>
       </c>
       <c r="J36">
-        <v>337.0297704963366</v>
+        <v>351.6108475811129</v>
       </c>
       <c r="K36">
-        <v>1795.885147925713</v>
+        <v>1867.839503965626</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>48.6453399973835</v>
+        <v>46.23754735756599</v>
       </c>
       <c r="G37">
-        <v>347.4440766921795</v>
+        <v>358.0298402943716</v>
       </c>
       <c r="H37">
-        <v>1907.976551013111</v>
+        <v>1933.308149967273</v>
       </c>
       <c r="I37">
-        <v>118.5096994309747</v>
+        <v>119.169039666369</v>
       </c>
       <c r="J37">
-        <v>297.226808612525</v>
+        <v>285.4406233711996</v>
       </c>
       <c r="K37">
-        <v>1692.553047166682</v>
+        <v>1649.012740420554</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>47.21132520346002</v>
+        <v>44.30215379329194</v>
       </c>
       <c r="G38">
-        <v>391.4842101947713</v>
+        <v>394.7301070341789</v>
       </c>
       <c r="H38">
-        <v>1795.44909248131</v>
+        <v>1864.906422557213</v>
       </c>
       <c r="I38">
-        <v>181.1877106815437</v>
+        <v>188.7246502098585</v>
       </c>
       <c r="J38">
-        <v>254.2063796625406</v>
+        <v>259.8664946624807</v>
       </c>
       <c r="K38">
-        <v>1338.987391403077</v>
+        <v>1427.342034462281</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>44.465226257252</v>
+        <v>43.92379442197246</v>
       </c>
       <c r="G39">
-        <v>389.1879787768543</v>
+        <v>401.345356707147</v>
       </c>
       <c r="H39">
-        <v>1804.608097754051</v>
+        <v>1929.472515372393</v>
       </c>
       <c r="I39">
-        <v>264.5408057232433</v>
+        <v>243.5009112383899</v>
       </c>
       <c r="J39">
-        <v>196.4604255354497</v>
+        <v>207.1246697853536</v>
       </c>
       <c r="K39">
-        <v>1106.81376639599</v>
+        <v>1196.602488554578</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>42.50904399632569</v>
+        <v>44.74518822874575</v>
       </c>
       <c r="G40">
-        <v>411.5941582651193</v>
+        <v>392.3711844748294</v>
       </c>
       <c r="H40">
-        <v>1813.587319507995</v>
+        <v>1792.912238650443</v>
       </c>
       <c r="I40">
-        <v>341.7701412392785</v>
+        <v>335.6942302829207</v>
       </c>
       <c r="J40">
-        <v>158.6611635875734</v>
+        <v>153.5152018679625</v>
       </c>
       <c r="K40">
-        <v>886.4283796607539</v>
+        <v>898.5554273082929</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>45.3489177968995</v>
+        <v>45.2968997162451</v>
       </c>
       <c r="G41">
-        <v>414.3376219155192</v>
+        <v>428.6182197919032</v>
       </c>
       <c r="H41">
-        <v>1852.202739724446</v>
+        <v>1864.971935020353</v>
       </c>
       <c r="I41">
-        <v>419.7010274327102</v>
+        <v>395.9869607233851</v>
       </c>
       <c r="J41">
-        <v>104.6355621490783</v>
+        <v>106.1510186484168</v>
       </c>
       <c r="K41">
-        <v>629.6759499237575</v>
+        <v>614.1729622533982</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>44.91484541124809</v>
+        <v>43.05698078294109</v>
       </c>
       <c r="G42">
-        <v>457.7350286324437</v>
+        <v>423.0756802596434</v>
       </c>
       <c r="H42">
-        <v>1863.826278157053</v>
+        <v>1931.343758682697</v>
       </c>
       <c r="I42">
-        <v>486.9861913542682</v>
+        <v>460.0466255515324</v>
       </c>
       <c r="J42">
-        <v>52.41787054744417</v>
+        <v>53.28256163974189</v>
       </c>
       <c r="K42">
-        <v>332.5453286657137</v>
+        <v>345.0140019911812</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>40.17263623660177</v>
+        <v>43.74972467061801</v>
       </c>
       <c r="G43">
-        <v>449.3432678128887</v>
+        <v>448.9924737356282</v>
       </c>
       <c r="H43">
-        <v>1968.219537321603</v>
+        <v>1947.548278542865</v>
       </c>
       <c r="I43">
-        <v>559.798351119398</v>
+        <v>581.513989345291</v>
       </c>
       <c r="J43">
-        <v>5.288941145311148</v>
+        <v>5.498581250209279</v>
       </c>
       <c r="K43">
-        <v>33.86445944318855</v>
+        <v>35.22574548858853</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>42.25646821018668</v>
+        <v>40.10533777245248</v>
       </c>
       <c r="G44">
-        <v>485.0182343633022</v>
+        <v>461.5786527854231</v>
       </c>
       <c r="H44">
-        <v>1920.920751479497</v>
+        <v>1887.828751549071</v>
       </c>
       <c r="I44">
-        <v>637.0533015878308</v>
+        <v>668.3617943351123</v>
       </c>
       <c r="J44">
-        <v>-44.46292964925596</v>
+        <v>-43.09379210524131</v>
       </c>
       <c r="K44">
-        <v>-292.6821407369504</v>
+        <v>-275.442232949639</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>41.64732880823629</v>
+        <v>42.5592561463836</v>
       </c>
       <c r="G45">
-        <v>513.5260482092365</v>
+        <v>512.4508686845427</v>
       </c>
       <c r="H45">
-        <v>1923.621391818573</v>
+        <v>1997.288069014527</v>
       </c>
       <c r="I45">
-        <v>698.9798230887436</v>
+        <v>736.7548490261308</v>
       </c>
       <c r="J45">
-        <v>-92.2250540735572</v>
+        <v>-95.35467017064258</v>
       </c>
       <c r="K45">
-        <v>-616.2569375585906</v>
+        <v>-609.9155658479483</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>38.46449793960292</v>
+        <v>40.23726804676646</v>
       </c>
       <c r="G46">
-        <v>517.0848693419235</v>
+        <v>528.2140343681608</v>
       </c>
       <c r="H46">
-        <v>1880.156768167434</v>
+        <v>2018.020549017148</v>
       </c>
       <c r="I46">
-        <v>841.7889568442195</v>
+        <v>813.1270942779054</v>
       </c>
       <c r="J46">
-        <v>-145.6246984505353</v>
+        <v>-143.6342368542298</v>
       </c>
       <c r="K46">
-        <v>-921.5485562188428</v>
+        <v>-948.6418081990806</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>38.28707312537782</v>
+        <v>41.82115030441076</v>
       </c>
       <c r="G47">
-        <v>545.582417181697</v>
+        <v>534.6389511539364</v>
       </c>
       <c r="H47">
-        <v>1836.639221118312</v>
+        <v>1847.248713827739</v>
       </c>
       <c r="I47">
-        <v>849.5366277107523</v>
+        <v>925.8757604615951</v>
       </c>
       <c r="J47">
-        <v>-187.4227998533845</v>
+        <v>-187.9838171974875</v>
       </c>
       <c r="K47">
-        <v>-1316.654290250415</v>
+        <v>-1339.38748460824</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>39.49190624360594</v>
+        <v>41.35413205614598</v>
       </c>
       <c r="G48">
-        <v>556.8371761167454</v>
+        <v>534.7167938022087</v>
       </c>
       <c r="H48">
-        <v>2009.430182818696</v>
+        <v>1971.813631379762</v>
       </c>
       <c r="I48">
-        <v>975.7294213595616</v>
+        <v>946.9052868852938</v>
       </c>
       <c r="J48">
-        <v>-245.864810871127</v>
+        <v>-230.1853988000244</v>
       </c>
       <c r="K48">
-        <v>-1682.355333925033</v>
+        <v>-1686.844042858863</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>37.57491459271163</v>
+        <v>40.39022129250634</v>
       </c>
       <c r="G49">
-        <v>556.9550243961347</v>
+        <v>557.1193816504053</v>
       </c>
       <c r="H49">
-        <v>2023.671363455719</v>
+        <v>1951.560466839631</v>
       </c>
       <c r="I49">
-        <v>1115.898752479524</v>
+        <v>1058.159542292978</v>
       </c>
       <c r="J49">
-        <v>-280.1402646788665</v>
+        <v>-299.4151176115307</v>
       </c>
       <c r="K49">
-        <v>-2139.58580105692</v>
+        <v>-2065.374379535196</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>37.94110528588877</v>
+        <v>39.7127221323255</v>
       </c>
       <c r="G50">
-        <v>578.5037595985417</v>
+        <v>604.2196308045898</v>
       </c>
       <c r="H50">
-        <v>1941.131247835289</v>
+        <v>2048.705951911771</v>
       </c>
       <c r="I50">
-        <v>1161.492285717787</v>
+        <v>1113.184811355593</v>
       </c>
       <c r="J50">
-        <v>-340.6573309297452</v>
+        <v>-334.7361036839203</v>
       </c>
       <c r="K50">
-        <v>-2604.293995147212</v>
+        <v>-2389.365231905607</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>38.95780352479881</v>
+        <v>39.30667502158713</v>
       </c>
       <c r="G51">
-        <v>617.9902297350695</v>
+        <v>579.3899226720393</v>
       </c>
       <c r="H51">
-        <v>1937.020117878453</v>
+        <v>1945.502572521651</v>
       </c>
       <c r="I51">
-        <v>1256.37358822862</v>
+        <v>1308.266980488706</v>
       </c>
       <c r="J51">
-        <v>-392.7225520749961</v>
+        <v>-367.8951509503073</v>
       </c>
       <c r="K51">
-        <v>-3039.010154157382</v>
+        <v>-2995.200726461747</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>38.35001928517811</v>
+        <v>37.38938392551122</v>
       </c>
       <c r="G52">
-        <v>637.7626799267227</v>
+        <v>614.0771843729543</v>
       </c>
       <c r="H52">
-        <v>2067.832244972825</v>
+        <v>1950.021051108283</v>
       </c>
       <c r="I52">
-        <v>1341.888496194315</v>
+        <v>1343.480593605731</v>
       </c>
       <c r="J52">
-        <v>-441.2274996724423</v>
+        <v>-438.9353963319718</v>
       </c>
       <c r="K52">
-        <v>-3405.988950926765</v>
+        <v>-3239.85594729726</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>36.37965803124433</v>
+        <v>35.96129682596602</v>
       </c>
       <c r="G53">
-        <v>620.7286476339372</v>
+        <v>622.1228792660867</v>
       </c>
       <c r="H53">
-        <v>2017.638804477853</v>
+        <v>1913.136957654873</v>
       </c>
       <c r="I53">
-        <v>1398.58037151404</v>
+        <v>1393.214546950522</v>
       </c>
       <c r="J53">
-        <v>-493.9029993687519</v>
+        <v>-457.4908033913937</v>
       </c>
       <c r="K53">
-        <v>-3679.92299724191</v>
+        <v>-3745.427741844944</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>36.42236708738133</v>
+        <v>38.1725557655501</v>
       </c>
       <c r="G54">
-        <v>647.8427892885455</v>
+        <v>614.3634305322229</v>
       </c>
       <c r="H54">
-        <v>1964.763090374745</v>
+        <v>2039.071568927476</v>
       </c>
       <c r="I54">
-        <v>1543.692034860951</v>
+        <v>1568.459227538099</v>
       </c>
       <c r="J54">
-        <v>-527.9780772785496</v>
+        <v>-510.3039576743312</v>
       </c>
       <c r="K54">
-        <v>-4433.63940765656</v>
+        <v>-4306.769338597745</v>
       </c>
     </row>
   </sheetData>
